--- a/Data/RMTestingFile.xlsx
+++ b/Data/RMTestingFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harih\OneDrive\Documents\UiPath\Testing\InvoiceTransactionsTesting\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83E14C6-6E0A-44C2-86A2-A176F594859D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD674126-4EF3-4E13-B22A-170CEBC3340E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{0A243AE6-E1D4-44F4-B8EA-3EA1738B50A8}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" activeTab="1" xr2:uid="{0A243AE6-E1D4-44F4-B8EA-3EA1738B50A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="68">
   <si>
     <t>Souce</t>
   </si>
@@ -598,7 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDA4625-F81E-4A3A-B81A-50A0F25B79A0}">
   <dimension ref="A1:AO10"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
@@ -1472,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F8694D-FFDE-483A-8419-DFF3C9374C77}">
   <dimension ref="A1:AO10"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1502,7 +1502,7 @@
     <col min="23" max="23" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="114.08984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.81640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1649,10 +1649,10 @@
         <v>1</v>
       </c>
       <c r="U2">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="V2">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -1664,254 +1664,74 @@
         <v>20</v>
       </c>
       <c r="Z2">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="AA2">
-        <v>250</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4">
-        <v>44000</v>
-      </c>
-      <c r="G3" s="4">
-        <v>44000</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="2">
-        <v>8084</v>
-      </c>
-      <c r="K3" s="2">
-        <v>16831</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="2">
-        <v>691901</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R3" s="2">
-        <v>1</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>1000</v>
-      </c>
-      <c r="V3">
-        <v>1000</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>2</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z3">
-        <v>25</v>
-      </c>
-      <c r="AA3">
-        <v>250</v>
-      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4">
-        <v>44000</v>
-      </c>
-      <c r="G4" s="4">
-        <v>44000</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="2">
-        <v>8084</v>
-      </c>
-      <c r="K4" s="2">
-        <v>16831</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="2">
-        <v>691901</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="2">
-        <v>1</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>1000</v>
-      </c>
-      <c r="V4">
-        <v>1000</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>3</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z4">
-        <v>25</v>
-      </c>
-      <c r="AA4">
-        <v>250</v>
-      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4">
-        <v>44000</v>
-      </c>
-      <c r="G5" s="4">
-        <v>44000</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="2">
-        <v>8084</v>
-      </c>
-      <c r="K5" s="2">
-        <v>16831</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="2">
-        <v>691901</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R5" s="2">
-        <v>1</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>1000</v>
-      </c>
-      <c r="V5">
-        <v>1000</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>4</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z5">
-        <v>25</v>
-      </c>
-      <c r="AA5">
-        <v>250</v>
-      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
@@ -2138,7 +1958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C7F740-EC35-4880-B3CE-6744E1726325}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/Data/RMTestingFile.xlsx
+++ b/Data/RMTestingFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harih\OneDrive\Documents\UiPath\Testing\InvoiceTransactionsTesting\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD674126-4EF3-4E13-B22A-170CEBC3340E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF335D82-9D79-49B2-B391-8A6557F094C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" activeTab="1" xr2:uid="{0A243AE6-E1D4-44F4-B8EA-3EA1738B50A8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{0A243AE6-E1D4-44F4-B8EA-3EA1738B50A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="4" r:id="rId1"/>
@@ -1473,7 +1473,7 @@
   <dimension ref="A1:AO10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1664,10 +1664,10 @@
         <v>20</v>
       </c>
       <c r="Z2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AA2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">

--- a/Data/RMTestingFile.xlsx
+++ b/Data/RMTestingFile.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harih\OneDrive\Documents\UiPath\Testing\InvoiceTransactionsTesting\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF335D82-9D79-49B2-B391-8A6557F094C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB969F4E-29D6-4BF2-BB6B-5E9A1DC04AEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{0A243AE6-E1D4-44F4-B8EA-3EA1738B50A8}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" activeTab="3" xr2:uid="{0A243AE6-E1D4-44F4-B8EA-3EA1738B50A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="SingleLineItem" sheetId="2" r:id="rId2"/>
     <sheet name="Adjustments" sheetId="5" r:id="rId3"/>
-    <sheet name="other" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
     <sheet name="DupTest" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$A$1:$AC$12</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="68">
-  <si>
-    <t>Souce</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="67">
   <si>
     <t>Class</t>
   </si>
@@ -115,9 +115,6 @@
     <t>101 Herndon Pkwy</t>
   </si>
   <si>
-    <t>Field7</t>
-  </si>
-  <si>
     <t>, , Herndon, VA 20170 United States</t>
   </si>
   <si>
@@ -233,6 +230,9 @@
   </si>
   <si>
     <t>Incomplete</t>
+  </si>
+  <si>
+    <t>Trans  Line</t>
   </si>
 </sst>
 </file>
@@ -268,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -279,9 +279,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDA4625-F81E-4A3A-B81A-50A0F25B79A0}">
   <dimension ref="A1:AO10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -634,100 +631,100 @@
   <sheetData>
     <row r="1" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="Q1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="W1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="4">
         <v>44000</v>
@@ -736,10 +733,10 @@
         <v>44000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2">
         <v>8084</v>
@@ -748,28 +745,28 @@
         <v>16831</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M2" s="2">
         <v>691901</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="Q2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R2" s="2">
         <v>1</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -787,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="Y2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z2">
         <v>25</v>
@@ -798,17 +795,17 @@
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="4">
         <v>44000</v>
@@ -817,10 +814,10 @@
         <v>44000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J3" s="2">
         <v>8084</v>
@@ -829,28 +826,28 @@
         <v>16831</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M3" s="2">
         <v>691901</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="Q3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R3" s="2">
         <v>1</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -868,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="Y3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z3">
         <v>25</v>
@@ -879,17 +876,17 @@
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4">
         <v>44000</v>
@@ -898,10 +895,10 @@
         <v>44000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J4" s="2">
         <v>8084</v>
@@ -910,28 +907,28 @@
         <v>16831</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M4" s="2">
         <v>691901</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="Q4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R4" s="2">
         <v>1</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -949,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="Y4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z4">
         <v>25</v>
@@ -960,17 +957,17 @@
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4">
         <v>44000</v>
@@ -979,10 +976,10 @@
         <v>44000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J5" s="2">
         <v>8084</v>
@@ -991,28 +988,28 @@
         <v>16831</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M5" s="2">
         <v>691901</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="Q5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R5" s="2">
         <v>1</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -1030,7 +1027,7 @@
         <v>4</v>
       </c>
       <c r="Y5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z5">
         <v>25</v>
@@ -1041,17 +1038,17 @@
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="6">
         <v>44000</v>
@@ -1060,10 +1057,10 @@
         <v>44000</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J6" s="5">
         <v>8084</v>
@@ -1072,28 +1069,28 @@
         <v>16831</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M6" s="5">
         <v>691901</v>
       </c>
       <c r="N6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="Q6" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R6" s="5">
         <v>2</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T6" s="7">
         <v>1</v>
@@ -1111,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z6" s="7">
         <v>25</v>
@@ -1136,17 +1133,17 @@
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="6">
         <v>44000</v>
@@ -1155,10 +1152,10 @@
         <v>44000</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J7" s="5">
         <v>8084</v>
@@ -1167,28 +1164,28 @@
         <v>16831</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M7" s="5">
         <v>691901</v>
       </c>
       <c r="N7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="Q7" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R7" s="5">
         <v>2</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T7" s="7">
         <v>1</v>
@@ -1206,7 +1203,7 @@
         <v>2</v>
       </c>
       <c r="Y7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z7" s="7">
         <v>25</v>
@@ -1231,17 +1228,17 @@
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="6">
         <v>44000</v>
@@ -1250,10 +1247,10 @@
         <v>44000</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J8" s="5">
         <v>8084</v>
@@ -1262,28 +1259,28 @@
         <v>16831</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M8" s="5">
         <v>691901</v>
       </c>
       <c r="N8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="Q8" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R8" s="5">
         <v>2</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T8" s="7">
         <v>1</v>
@@ -1301,7 +1298,7 @@
         <v>3</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z8" s="7">
         <v>25</v>
@@ -1326,17 +1323,17 @@
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="6">
         <v>44000</v>
@@ -1345,10 +1342,10 @@
         <v>44000</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J9" s="5">
         <v>8084</v>
@@ -1357,28 +1354,28 @@
         <v>16831</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M9" s="5">
         <v>691901</v>
       </c>
       <c r="N9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="Q9" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R9" s="5">
         <v>2</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T9" s="7">
         <v>1</v>
@@ -1396,7 +1393,7 @@
         <v>4</v>
       </c>
       <c r="Y9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z9" s="7">
         <v>25</v>
@@ -1472,9 +1469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F8694D-FFDE-483A-8419-DFF3C9374C77}">
   <dimension ref="A1:AO10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1508,100 +1503,100 @@
   <sheetData>
     <row r="1" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="Q1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="W1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="4">
         <v>44000</v>
@@ -1610,10 +1605,10 @@
         <v>44000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2">
         <v>8084</v>
@@ -1622,116 +1617,296 @@
         <v>16831</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M2" s="2">
         <v>691901</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="Q2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R2" s="2">
         <v>1</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2">
+        <v>1000</v>
+      </c>
+      <c r="V2">
+        <v>1000</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z2">
+        <v>25</v>
+      </c>
+      <c r="AA2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4">
+        <v>44000</v>
+      </c>
+      <c r="G3" s="4">
+        <v>44000</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="V2">
+      <c r="I3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="2">
+        <v>8084</v>
+      </c>
+      <c r="K3" s="2">
+        <v>16831</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="2">
+        <v>691901</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1000</v>
+      </c>
+      <c r="V3">
+        <v>1000</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3">
+        <v>25</v>
+      </c>
+      <c r="AA3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4">
+        <v>44000</v>
+      </c>
+      <c r="G4" s="4">
+        <v>44000</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z2">
+      <c r="I4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="2">
+        <v>8084</v>
+      </c>
+      <c r="K4" s="2">
+        <v>16831</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AA2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="M4" s="2">
+        <v>691901</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1000</v>
+      </c>
+      <c r="V4">
+        <v>1000</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z4">
+        <v>25</v>
+      </c>
+      <c r="AA4">
+        <v>250</v>
+      </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4">
+        <v>44000</v>
+      </c>
+      <c r="G5" s="4">
+        <v>44000</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="2">
+        <v>8084</v>
+      </c>
+      <c r="K5" s="2">
+        <v>16831</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="2">
+        <v>691901</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1000</v>
+      </c>
+      <c r="V5">
+        <v>1000</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z5">
+        <v>25</v>
+      </c>
+      <c r="AA5">
+        <v>250</v>
+      </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
@@ -1970,10 +2145,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1981,7 +2156,7 @@
         <v>10662</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1991,10 +2166,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1515735-4C1B-48E2-B4CC-9A020E3494BE}">
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2014,10 +2189,9 @@
     <col min="14" max="14" width="30.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
     <col min="16" max="16" width="12.6328125" customWidth="1"/>
-    <col min="17" max="17" width="16.6328125" customWidth="1"/>
-    <col min="18" max="18" width="8.36328125" customWidth="1"/>
-    <col min="19" max="19" width="16.6328125" customWidth="1"/>
-    <col min="20" max="20" width="6.36328125" customWidth="1"/>
+    <col min="17" max="18" width="16.6328125" customWidth="1"/>
+    <col min="19" max="19" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="72.08984375" customWidth="1"/>
     <col min="22" max="22" width="6.6328125" customWidth="1"/>
     <col min="26" max="26" width="114.08984375" bestFit="1" customWidth="1"/>
@@ -2026,127 +2200,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>43945</v>
+      </c>
+      <c r="G2" s="1">
+        <v>43945</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="J2">
+        <v>6084</v>
+      </c>
+      <c r="K2">
+        <v>14837</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
       </c>
       <c r="Q2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>2000</v>
+      </c>
+      <c r="Y2">
+        <v>2000</v>
       </c>
       <c r="Z2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="AA2">
+        <v>100</v>
+      </c>
+      <c r="AB2">
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="1">
+        <v>43933</v>
+      </c>
+      <c r="G3" s="1">
+        <v>43933</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1">
-        <v>43945</v>
-      </c>
-      <c r="G3" s="1">
-        <v>43945</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3">
         <v>6084</v>
@@ -2155,66 +2388,70 @@
         <v>14837</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3">
-        <v>14837</v>
+        <v>11</v>
+      </c>
+      <c r="R3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
-      <c r="U3" t="s">
-        <v>25</v>
-      </c>
+      <c r="U3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" s="2"/>
       <c r="W3">
         <v>1</v>
       </c>
       <c r="X3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Y3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AA3">
         <v>100</v>
       </c>
       <c r="AB3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" s="1">
+        <v>43946</v>
+      </c>
+      <c r="G4" s="1">
+        <v>43946</v>
+      </c>
+      <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1">
-        <v>43933</v>
-      </c>
-      <c r="G4" s="1">
-        <v>43933</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4">
         <v>6084</v>
@@ -2223,35 +2460,32 @@
         <v>14837</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4">
-        <v>14837</v>
-      </c>
-      <c r="S4" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
       </c>
       <c r="T4">
         <v>1</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4">
         <v>1</v>
       </c>
       <c r="X4">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="Y4">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="Z4" t="s">
         <v>36</v>
@@ -2260,33 +2494,33 @@
         <v>100</v>
       </c>
       <c r="AB4">
-        <v>1000</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" s="1">
+        <v>43935</v>
+      </c>
+      <c r="G5" s="1">
+        <v>43935</v>
+      </c>
+      <c r="H5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1">
-        <v>43946</v>
-      </c>
-      <c r="G5" s="1">
-        <v>43946</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5">
         <v>6084</v>
@@ -2295,16 +2529,19 @@
         <v>14837</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5">
-        <v>14837</v>
+        <v>11</v>
+      </c>
+      <c r="R5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -2317,45 +2554,45 @@
         <v>1</v>
       </c>
       <c r="X5">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="Y5">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="Z5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AA5">
         <v>100</v>
       </c>
       <c r="AB5">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" s="1">
+        <v>43946</v>
+      </c>
+      <c r="G6" s="1">
+        <v>43946</v>
+      </c>
+      <c r="H6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1">
-        <v>43935</v>
-      </c>
-      <c r="G6" s="1">
-        <v>43935</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6">
         <v>6084</v>
@@ -2364,58 +2601,60 @@
         <v>14837</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="P6">
+        <v>10025</v>
       </c>
       <c r="Q6" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6">
-        <v>14837</v>
-      </c>
-      <c r="S6" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
       </c>
       <c r="T6">
         <v>1</v>
       </c>
-      <c r="U6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V6" s="2"/>
+      <c r="U6" t="s">
+        <v>24</v>
+      </c>
       <c r="W6">
         <v>1</v>
       </c>
       <c r="X6">
-        <v>345</v>
+        <v>1500</v>
       </c>
       <c r="Y6">
-        <v>345</v>
+        <v>1500</v>
       </c>
       <c r="Z6" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AA6">
         <v>100</v>
       </c>
       <c r="AB6">
-        <v>345</v>
+        <v>1500</v>
+      </c>
+      <c r="AC6">
+        <v>10026</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
       </c>
       <c r="F7" s="1">
         <v>43946</v>
@@ -2424,10 +2663,10 @@
         <v>43946</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7">
         <v>6084</v>
@@ -2436,60 +2675,57 @@
         <v>14837</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7">
-        <v>10025</v>
+        <v>31</v>
       </c>
       <c r="Q7" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7">
-        <v>14837</v>
+        <v>11</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
       </c>
       <c r="T7">
         <v>1</v>
       </c>
       <c r="U7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="W7">
         <v>1</v>
       </c>
       <c r="X7">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="Y7">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="Z7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA7">
         <v>100</v>
       </c>
       <c r="AB7">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="AC7">
-        <v>10026</v>
+        <v>10027</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
         <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
       </c>
       <c r="F8" s="1">
         <v>43946</v>
@@ -2498,10 +2734,10 @@
         <v>43946</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J8">
         <v>6084</v>
@@ -2510,182 +2746,112 @@
         <v>14837</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q8" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8">
-        <v>14837</v>
+        <v>11</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
       </c>
       <c r="T8">
         <v>1</v>
       </c>
       <c r="U8" t="s">
-        <v>41</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <v>250</v>
-      </c>
-      <c r="Y8">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="Z8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA8">
-        <v>100</v>
-      </c>
-      <c r="AB8">
-        <v>250</v>
-      </c>
-      <c r="AC8">
-        <v>10027</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" s="1">
+        <v>44130</v>
+      </c>
+      <c r="G9" s="1">
+        <v>44130</v>
+      </c>
+      <c r="H9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="1">
-        <v>43946</v>
-      </c>
-      <c r="G9" s="1">
-        <v>43946</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
       <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9">
+        <v>1062</v>
+      </c>
+      <c r="K9">
+        <v>17828</v>
+      </c>
+      <c r="L9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9" t="s">
         <v>24</v>
       </c>
-      <c r="J9">
-        <v>6084</v>
-      </c>
-      <c r="K9">
-        <v>14837</v>
-      </c>
-      <c r="L9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9">
-        <v>14837</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9" t="s">
-        <v>42</v>
+      <c r="V9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1001</v>
+      </c>
+      <c r="Y9">
+        <v>1001</v>
       </c>
       <c r="Z9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1">
-        <v>44130</v>
-      </c>
-      <c r="G10" s="1">
-        <v>44130</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10">
-        <v>1062</v>
-      </c>
-      <c r="K10">
-        <v>17828</v>
-      </c>
-      <c r="L10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>47</v>
-      </c>
-      <c r="R10">
-        <v>17828</v>
-      </c>
-      <c r="S10" t="s">
-        <v>48</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10" t="s">
         <v>25</v>
       </c>
-      <c r="V10" t="s">
-        <v>50</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10">
+      <c r="AA9">
+        <v>100</v>
+      </c>
+      <c r="AB9">
         <v>1001</v>
       </c>
-      <c r="Y10">
-        <v>1001</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA10">
-        <v>100</v>
-      </c>
-      <c r="AB10">
-        <v>1001</v>
-      </c>
-      <c r="AC10">
+      <c r="AC9">
         <v>10201</v>
       </c>
     </row>
+    <row r="12" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q12"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I1:J1"/>
-  </mergeCells>
+  <autoFilter ref="A1:AC12" xr:uid="{C2DAF7FD-3DCF-47CD-9C4C-B61E8589E5F6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2731,96 +2897,96 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="Q1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="W1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="4">
         <v>44000</v>
@@ -2829,10 +2995,10 @@
         <v>44000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2">
         <v>8084</v>
@@ -2841,28 +3007,28 @@
         <v>16831</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M2" s="2">
         <v>691901</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="Q2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R2" s="2">
         <v>1</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="T2" s="2">
         <v>1900</v>
@@ -2877,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Y2" s="2">
         <v>100</v>
@@ -2888,16 +3054,16 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="4">
         <v>44000</v>
@@ -2906,10 +3072,10 @@
         <v>44000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J3" s="2">
         <v>8084</v>
@@ -2918,28 +3084,28 @@
         <v>16831</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M3" s="2">
         <v>691901</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="Q3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R3" s="2">
         <v>1</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="T3" s="2">
         <v>1900</v>
@@ -2954,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Y3" s="2">
         <v>100</v>
